--- a/ブログ情報_単体テスト.xlsx
+++ b/ブログ情報_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA15C009-2140-4B13-9618-700BF3BF3F15}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D28D95D-495E-4DB0-BCB5-E7AC8F2140F2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -359,6 +359,46 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生した場合、「エラーが発生したためブログ情報が取得できませんでした。」の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ情報画面にアクセスする</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためブログ情報が取得できませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,24 +492,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -500,6 +522,24 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -782,11 +822,11 @@
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="8"/>
     <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="7"/>
     <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1109,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1163,7 +1203,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45993</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1217,8 +1257,8 @@
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4">
-        <v>45994</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -1255,8 +1295,8 @@
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4">
-        <v>45994</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
@@ -1293,8 +1333,8 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
@@ -1331,8 +1371,8 @@
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="4">
-        <v>45994</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
@@ -1369,8 +1409,8 @@
       <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4">
-        <v>45994</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -1407,8 +1447,8 @@
       <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="4">
-        <v>45994</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
@@ -1445,8 +1485,8 @@
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4">
-        <v>45994</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>17</v>
@@ -1481,8 +1521,8 @@
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="4">
-        <v>45994</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
@@ -1499,6 +1539,44 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
